--- a/src/Exercises.xlsx
+++ b/src/Exercises.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29301"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29303"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{856CBC62-F9F7-446A-9E80-F88FCEC636D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5348CD8D-322D-4CD1-A775-85534F09BE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
+    <sheet name="Calisthenic" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -899,7 +899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
